--- a/tests/INVOICE WRITING.xlsx
+++ b/tests/INVOICE WRITING.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="202410" sheetId="1" r:id="rId1"/>
@@ -31,1141 +31,1141 @@
     <t>INVOICE NUMBER</t>
   </si>
   <si>
-    <t>SI_PPEI_1590EC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
     <t>DAB</t>
   </si>
   <si>
-    <t>SI_PPEI_ABRECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ACENGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ACEPHRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ACHIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ACNPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ADGI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ADVENTGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ADVENTRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AESIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AFAB_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AGECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AHC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AKELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ALECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ALSONSRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AMLANHPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ANDARES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ANDA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ANECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ANTECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_APC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_APDIGOS_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_APEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_APEX_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_APRI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AREC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ASELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ASIGA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_AWOC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BATA02_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BATELEC1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BATELEC2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BBEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BEHMCLLHC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BENECOGEN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BENECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BEZ_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BGIGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BGIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BGI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BHC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BILECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BISCOM_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BLCI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BLIRANGEO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BOHECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BOHECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BSEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BTN2020_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BUBUNAWAN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BUSECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_BWPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CAB_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CAGELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CAGELCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CALABANGA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CAMELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CANORECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CAPELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CASA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CASURECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CASURECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CASURECO3_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CASURECO4_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CBEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEBECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEBECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEBECO3_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEBUEDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEDCLRE_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CELCOR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CENECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CENPRI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CEPALCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CESIGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CESIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CIP2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CLI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CLPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CORERES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_COTELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CSCLARK_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_CTLCOPLMA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DANECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DASURECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DECORP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DIRPOWGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DIRPOWRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DLPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DORECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_DORELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_EAUC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_EBWPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ECOPARK_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_EDCGMIN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_EDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_EEIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_EERI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ELPISPP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ESAMELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FCFMC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FCRV_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FDCRESC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FFHC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGBPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGESGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGESRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGHPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGHSNG_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGPCSTRA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FGPSANLO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FIBECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FLECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FNPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FRLC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FSOLEQ_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_FTOLEDO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_G2REC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GCC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GCGIGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GCGIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GCGI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GESCRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GFII_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GIFT_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GIGAACE4_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GIGASOL3_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GMEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GNPD_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GNPKLCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GNPLCRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GPS3I_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GTEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_GUIMELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HCC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HEDBUK_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HEDCORMIN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HEDCOR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HELIOS_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HPCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HSABI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_HTI2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_IASCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_IBEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ILECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ILECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ILECO3_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ILSRMC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_INEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_IPHI1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_IPOWER_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ISECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ISELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ISELCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_IVIUPPER_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_JNECRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_JOBIN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_KAELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_KINGENE_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_KIRASOL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_KRATOSRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_KSPCRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_KSPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LAMSAN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LANECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LEYECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LEYECO3_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LEYECO4_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LEYECO5_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LEZ_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LIANGAN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LINDE_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LMCA1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LPEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_LUELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MAEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MALVEZ_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MANTARES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MCCI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ME1I_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MECORES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MEGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MERALCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MERXRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MEZ_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MGI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MHCI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MILPI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MINERGY_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MINPOWCOR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MMPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MOELCI1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MOELCI2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MONTESOL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MOPRECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MORESCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MORESCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MORE_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPBI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPIDIGOS_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPPCLRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MPPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MRDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MRLCOLGE_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MRLCOLRE_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_MVC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NACSUR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NAREDCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NEECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NEECO2AR1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NEECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NEWTECH_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NEXTGEN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NGCPLMIN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NGCP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NIABAL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NIACST_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NIAREG2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NISPI2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NISPI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NLREC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NNBP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NOCECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NONECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NORECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NORECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NORSAMELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NORTHWIND_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NSEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NVVOGTARM_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NVVOGTDAL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_NVVOGTSE1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_OEDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_OEPGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_OSPGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PANASIA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PANELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PANELCO3_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PASAR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PCPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PEAKPOWER_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PEDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PELCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PENELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PESI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PETRONGEN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PETROSOLR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PFBSI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PGBREI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PGEP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PHRI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PMPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PPDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PPEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PSALMGMIN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PSALM_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PVSPI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_PWEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_QPPL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_QUEZELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_QUEZELCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_QUIRELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_RCBMI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_RC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_REALSTEEL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_RPPOWRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SACASOL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SACASUN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SAMELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SAMELCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SBPLC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SCBIOPOWR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SCBI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SCGCPI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SCPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SCRCRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SCSEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SEDI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SEPALCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SEPHGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SEZ_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SFELAPCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SHIZEN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SHPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SIBULAN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SILAYSPI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SIPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SLPGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SLTEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SMCCPCRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SMCCPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SMCPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SMEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SMITHBELL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SNAPBENGT_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SNAPMIGES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SNAPMIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SNAPRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SNAP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SNBP_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SOCOTECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SOCOTECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SOLARACE1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SOLARPHIL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SOLARPHTC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SOLECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SORECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SORECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SPARC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SPCPOWER_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SPDC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SPESCL_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SPGI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SPPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SSPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_STACLARA_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_STC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SUKELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SUPREMEPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SURNECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SURSECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SURSECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_SUWECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TAFTHEC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TAPGC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TAREC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TARELCO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TARELCO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TECRAT_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TERASU_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_THC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TLI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TMI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TPECRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TPVI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TRUSTSOLR_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TSI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_TVI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_UPLAB1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_UPLB_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_UPPCGEN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_UPSIGMIN_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_UPSI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_URC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_VECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_VESMIRES_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_VMC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_VOMI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_VSEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_VSGPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_WMPC_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_YHGEI_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ZAMCELCO_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ZAMECO1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ZAMECO2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ZAMSUREC1_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ZAMSUREC2_TS-WF-220F-0031616_1024_20241118.pdf</t>
-  </si>
-  <si>
-    <t>SI_PPEI_ZANECO_TS-WF-220F-0031616_1024_20241118.pdf</t>
+    <t>SI_PPEI_1590EC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ABRECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ACENGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ACEPHRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ACHIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ACNPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ADGI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ADVENTGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ADVENTRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AESIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AFAB_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AGECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AHC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AKELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ALECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ALSONSRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AMLANHPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ANDARES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ANDA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ANECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ANTECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_APC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_APDIGOS_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_APEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_APEX_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_APRI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AREC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ASELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ASIGA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_AWOC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BATA02_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BATELEC1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BATELEC2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BBEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BEHMCLLHC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BENECOGEN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BENECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BEZ_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BGIGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BGIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BGI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BHC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BILECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BISCOM_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BLCI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BLIRANGEO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BOHECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BOHECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BSEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BTN2020_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BUBUNAWAN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BUSECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_BWPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CAB_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CAGELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CAGELCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CALABANGA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CAMELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CANORECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CAPELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CASA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CASURECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CASURECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CASURECO3_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CASURECO4_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CBEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEBECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEBECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEBECO3_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEBUEDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEDCLRE_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CELCOR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CENECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CENPRI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CEPALCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CESIGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CESIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CIP2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CLI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CLPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CORERES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_COTELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CSCLARK_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_CTLCOPLMA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DANECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DASURECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DECORP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DIRPOWGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DIRPOWRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DLPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DORECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_DORELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_EAUC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_EBWPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ECOPARK_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_EDCGMIN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_EDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_EEIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_EERI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ELPISPP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ESAMELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FCFMC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FCRV_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FDCRESC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FFHC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGBPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGESGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGESRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGHPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGHSNG_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGPCSTRA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FGPSANLO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FIBECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FLECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FNPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FRLC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FSOLEQ_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_FTOLEDO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_G2REC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GCC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GCGIGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GCGIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GCGI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GESCRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GFII_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GIFT_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GIGAACE4_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GIGASOL3_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GMEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GNPD_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GNPKLCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GNPLCRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GPS3I_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GTEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_GUIMELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HCC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HEDBUK_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HEDCORMIN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HEDCOR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HELIOS_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HPCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HSABI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_HTI2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_IASCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_IBEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ILECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ILECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ILECO3_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ILSRMC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_INEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_IPHI1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_IPOWER_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ISECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ISELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ISELCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_IVIUPPER_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_JNECRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_JOBIN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_KAELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_KINGENE_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_KIRASOL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_KRATOSRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_KSPCRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_KSPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LAMSAN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LANECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LEYECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LEYECO3_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LEYECO4_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LEYECO5_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LEZ_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LIANGAN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LINDE_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LMCA1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LPEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_LUELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MAEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MALVEZ_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MANTARES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MCCI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ME1I_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MECORES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MEGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MERALCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MERXRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MEZ_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MGI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MHCI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MILPI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MINERGY_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MINPOWCOR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MMPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MOELCI1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MOELCI2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MONTESOL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MOPRECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MORESCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MORESCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MORE_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPBI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPIDIGOS_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPPCLRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MPPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MRDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MRLCOLGE_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MRLCOLRE_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_MVC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NACSUR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NAREDCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NEECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NEECO2AR1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NEECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NEWTECH_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NEXTGEN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NGCPLMIN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NGCP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NIABAL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NIACST_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NIAREG2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NISPI2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NISPI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NLREC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NNBP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NOCECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NONECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NORECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NORECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NORSAMELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NORTHWIND_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NSEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NVVOGTARM_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NVVOGTDAL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_NVVOGTSE1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_OEDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_OEPGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_OSPGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PANASIA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PANELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PANELCO3_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PASAR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PCPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PEAKPOWER_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PEDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PELCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PENELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PESI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PETRONGEN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PETROSOLR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PFBSI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PGBREI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PGEP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PHRI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PMPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PPDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PPEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PSALMGMIN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PSALM_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PVSPI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_PWEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_QPPL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_QUEZELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_QUEZELCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_QUIRELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_RCBMI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_RC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_REALSTEEL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_RPPOWRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SACASOL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SACASUN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SAMELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SAMELCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SBPLC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SCBIOPOWR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SCBI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SCGCPI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SCPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SCRCRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SCSEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SEDI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SEPALCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SEPHGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SEZ_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SFELAPCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SHIZEN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SHPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SIBULAN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SILAYSPI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SIPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SLPGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SLTEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SMCCPCRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SMCCPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SMCPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SMEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SMITHBELL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SNAPBENGT_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SNAPMIGES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SNAPMIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SNAPRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SNAP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SNBP_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SOCOTECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SOCOTECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SOLARACE1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SOLARPHIL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SOLARPHTC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SOLECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SORECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SORECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SPARC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SPCPOWER_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SPDC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SPESCL_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SPGI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SPPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SSPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_STACLARA_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_STC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SUKELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SUPREMEPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SURNECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SURSECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SURSECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_SUWECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TAFTHEC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TAPGC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TAREC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TARELCO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TARELCO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TECRAT_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TERASU_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_THC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TLI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TMI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TPECRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TPVI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TRUSTSOLR_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TSI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_TVI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_UPLAB1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_UPLB_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_UPPCGEN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_UPSIGMIN_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_UPSI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_URC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_VECO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_VESMIRES_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_VMC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_VOMI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_VSEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_VSGPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_WMPC_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_YHGEI_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ZAMCELCO_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ZAMECO1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ZAMECO2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ZAMSUREC1_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ZAMSUREC2_TS-WF-220F-0031616_1024_20241118</t>
+  </si>
+  <si>
+    <t>SI_PPEI_ZANECO_TS-WF-220F-0031616_1024_20241118</t>
   </si>
 </sst>
 </file>
@@ -1565,9 +1565,9 @@
   </sheetPr>
   <dimension ref="A1:AA379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4">
@@ -14099,9 +14099,9 @@
   </sheetPr>
   <dimension ref="A1:AA379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14149,10 +14149,10 @@
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>9351</v>
@@ -14187,7 +14187,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <f>C2+1</f>
@@ -14223,7 +14223,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:C67" si="0">C3+1</f>
@@ -14259,7 +14259,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
@@ -14295,7 +14295,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
@@ -14331,7 +14331,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
@@ -14367,7 +14367,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
@@ -14403,7 +14403,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
@@ -14439,7 +14439,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
@@ -14475,7 +14475,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
@@ -14511,7 +14511,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
@@ -14547,7 +14547,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
@@ -14583,7 +14583,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
@@ -14619,7 +14619,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
@@ -14655,7 +14655,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -14691,7 +14691,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
@@ -14727,7 +14727,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -14763,7 +14763,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -14799,7 +14799,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
@@ -14835,7 +14835,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
@@ -14871,7 +14871,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
@@ -14907,7 +14907,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -14943,7 +14943,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
@@ -14979,7 +14979,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
@@ -15015,7 +15015,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -15051,7 +15051,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -15087,7 +15087,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -15123,7 +15123,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -15159,7 +15159,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
@@ -15195,7 +15195,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
@@ -15231,7 +15231,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
@@ -15267,7 +15267,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
@@ -15303,7 +15303,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
@@ -15339,7 +15339,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -15375,7 +15375,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
@@ -15411,7 +15411,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="0"/>
@@ -15447,7 +15447,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="0"/>
@@ -15483,7 +15483,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="0"/>
@@ -15519,7 +15519,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="0"/>
@@ -15555,7 +15555,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="0"/>
@@ -15591,7 +15591,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="0"/>
@@ -15627,7 +15627,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="0"/>
@@ -15663,7 +15663,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="0"/>
@@ -15699,7 +15699,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="0"/>
@@ -15735,7 +15735,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="0"/>
@@ -15771,7 +15771,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="0"/>
@@ -15807,7 +15807,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="0"/>
@@ -15843,7 +15843,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="0"/>
@@ -15879,7 +15879,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="0"/>
@@ -15915,7 +15915,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="0"/>
@@ -15951,7 +15951,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="0"/>
@@ -15987,7 +15987,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="0"/>
@@ -16023,7 +16023,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="0"/>
@@ -16059,7 +16059,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="0"/>
@@ -16095,7 +16095,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="0"/>
@@ -16131,7 +16131,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="0"/>
@@ -16167,7 +16167,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="0"/>
@@ -16203,7 +16203,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="0"/>
@@ -16239,7 +16239,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="0"/>
@@ -16275,7 +16275,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" si="0"/>
@@ -16311,7 +16311,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" si="0"/>
@@ -16347,7 +16347,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" si="0"/>
@@ -16383,7 +16383,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="4">
         <f t="shared" si="0"/>
@@ -16419,7 +16419,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="4">
         <f t="shared" si="0"/>
@@ -16455,7 +16455,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="4">
         <f t="shared" si="0"/>
@@ -16491,7 +16491,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="4">
         <f t="shared" si="0"/>
@@ -16527,7 +16527,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="4">
         <f t="shared" ref="C68:C131" si="1">C67+1</f>
@@ -16563,7 +16563,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="4">
         <f t="shared" si="1"/>
@@ -16599,7 +16599,7 @@
         <v>72</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="4">
         <f t="shared" si="1"/>
@@ -16635,7 +16635,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="4">
         <f t="shared" si="1"/>
@@ -16671,7 +16671,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="4">
         <f t="shared" si="1"/>
@@ -16707,7 +16707,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="4">
         <f t="shared" si="1"/>
@@ -16743,7 +16743,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="4">
         <f t="shared" si="1"/>
@@ -16779,7 +16779,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="4">
         <f t="shared" si="1"/>
@@ -16815,7 +16815,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="4">
         <f t="shared" si="1"/>
@@ -16851,7 +16851,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" si="1"/>
@@ -16887,7 +16887,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="4">
         <f t="shared" si="1"/>
@@ -16923,7 +16923,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="4">
         <f t="shared" si="1"/>
@@ -16959,7 +16959,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="4">
         <f t="shared" si="1"/>
@@ -16995,7 +16995,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="4">
         <f t="shared" si="1"/>
@@ -17031,7 +17031,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="4">
         <f t="shared" si="1"/>
@@ -17067,7 +17067,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="4">
         <f t="shared" si="1"/>
@@ -17103,7 +17103,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="4">
         <f t="shared" si="1"/>
@@ -17139,7 +17139,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="4">
         <f t="shared" si="1"/>
@@ -17175,7 +17175,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="4">
         <f t="shared" si="1"/>
@@ -17211,7 +17211,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" si="1"/>
@@ -17247,7 +17247,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="4">
         <f t="shared" si="1"/>
@@ -17283,7 +17283,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="4">
         <f t="shared" si="1"/>
@@ -17319,7 +17319,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="4">
         <f t="shared" si="1"/>
@@ -17355,7 +17355,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="4">
         <f t="shared" si="1"/>
@@ -17391,7 +17391,7 @@
         <v>94</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="4">
         <f t="shared" si="1"/>
@@ -17427,7 +17427,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="4">
         <f t="shared" si="1"/>
@@ -17463,7 +17463,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="4">
         <f t="shared" si="1"/>
@@ -17499,7 +17499,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="4">
         <f t="shared" si="1"/>
@@ -17535,7 +17535,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="4">
         <f t="shared" si="1"/>
@@ -17571,7 +17571,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="4">
         <f t="shared" si="1"/>
@@ -17607,7 +17607,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="4">
         <f t="shared" si="1"/>
@@ -17643,7 +17643,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="4">
         <f t="shared" si="1"/>
@@ -17679,7 +17679,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="4">
         <f t="shared" si="1"/>
@@ -17715,7 +17715,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="4">
         <f t="shared" si="1"/>
@@ -17751,7 +17751,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="4">
         <f t="shared" si="1"/>
@@ -17787,7 +17787,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="4">
         <f t="shared" si="1"/>
@@ -17823,7 +17823,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="4">
         <f t="shared" si="1"/>
@@ -17859,7 +17859,7 @@
         <v>107</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="4">
         <f t="shared" si="1"/>
@@ -17895,7 +17895,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="4">
         <f t="shared" si="1"/>
@@ -17931,7 +17931,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="4">
         <f t="shared" si="1"/>
@@ -17967,7 +17967,7 @@
         <v>110</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="4">
         <f t="shared" si="1"/>
@@ -18003,7 +18003,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="4">
         <f t="shared" si="1"/>
@@ -18039,7 +18039,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="4">
         <f t="shared" si="1"/>
@@ -18075,7 +18075,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="4">
         <f t="shared" si="1"/>
@@ -18111,7 +18111,7 @@
         <v>114</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="4">
         <f t="shared" si="1"/>
@@ -18147,7 +18147,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" s="4">
         <f t="shared" si="1"/>
@@ -18183,7 +18183,7 @@
         <v>116</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="4">
         <f t="shared" si="1"/>
@@ -18219,7 +18219,7 @@
         <v>117</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="4">
         <f t="shared" si="1"/>
@@ -18255,7 +18255,7 @@
         <v>118</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="4">
         <f t="shared" si="1"/>
@@ -18291,7 +18291,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="4">
         <f t="shared" si="1"/>
@@ -18327,7 +18327,7 @@
         <v>120</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="4">
         <f t="shared" si="1"/>
@@ -18363,7 +18363,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="4">
         <f t="shared" si="1"/>
@@ -18399,7 +18399,7 @@
         <v>122</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="4">
         <f t="shared" si="1"/>
@@ -18435,7 +18435,7 @@
         <v>123</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="4">
         <f t="shared" si="1"/>
@@ -18471,7 +18471,7 @@
         <v>124</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="4">
         <f t="shared" si="1"/>
@@ -18507,7 +18507,7 @@
         <v>125</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" s="4">
         <f t="shared" si="1"/>
@@ -18543,7 +18543,7 @@
         <v>126</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" s="4">
         <f t="shared" si="1"/>
@@ -18579,7 +18579,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" s="4">
         <f t="shared" si="1"/>
@@ -18615,7 +18615,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" s="4">
         <f t="shared" si="1"/>
@@ -18651,7 +18651,7 @@
         <v>129</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C127" s="4">
         <f t="shared" si="1"/>
@@ -18687,7 +18687,7 @@
         <v>130</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128" s="4">
         <f t="shared" si="1"/>
@@ -18723,7 +18723,7 @@
         <v>131</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="4">
         <f t="shared" si="1"/>
@@ -18759,7 +18759,7 @@
         <v>132</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130" s="4">
         <f t="shared" si="1"/>
@@ -18795,7 +18795,7 @@
         <v>133</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" s="4">
         <f t="shared" si="1"/>
@@ -18831,7 +18831,7 @@
         <v>134</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C132" s="4">
         <f t="shared" ref="C132:C195" si="2">C131+1</f>
@@ -18867,7 +18867,7 @@
         <v>135</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" s="4">
         <f t="shared" si="2"/>
@@ -18903,7 +18903,7 @@
         <v>136</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="4">
         <f t="shared" si="2"/>
@@ -18939,7 +18939,7 @@
         <v>137</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" s="4">
         <f t="shared" si="2"/>
@@ -18975,7 +18975,7 @@
         <v>138</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136" s="4">
         <f t="shared" si="2"/>
@@ -19011,7 +19011,7 @@
         <v>139</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" s="4">
         <f t="shared" si="2"/>
@@ -19047,7 +19047,7 @@
         <v>140</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" s="4">
         <f t="shared" si="2"/>
@@ -19083,7 +19083,7 @@
         <v>141</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" s="4">
         <f t="shared" si="2"/>
@@ -19119,7 +19119,7 @@
         <v>142</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140" s="4">
         <f t="shared" si="2"/>
@@ -19155,7 +19155,7 @@
         <v>143</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141" s="4">
         <f t="shared" si="2"/>
@@ -19191,7 +19191,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" s="4">
         <f t="shared" si="2"/>
@@ -19227,7 +19227,7 @@
         <v>145</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" s="4">
         <f t="shared" si="2"/>
@@ -19263,7 +19263,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="4">
         <f t="shared" si="2"/>
@@ -19299,7 +19299,7 @@
         <v>147</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="4">
         <f t="shared" si="2"/>
@@ -19335,7 +19335,7 @@
         <v>148</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="4">
         <f t="shared" si="2"/>
@@ -19371,7 +19371,7 @@
         <v>149</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" s="4">
         <f t="shared" si="2"/>
@@ -19407,7 +19407,7 @@
         <v>150</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148" s="4">
         <f t="shared" si="2"/>
@@ -19443,7 +19443,7 @@
         <v>151</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149" s="4">
         <f t="shared" si="2"/>
@@ -19479,7 +19479,7 @@
         <v>152</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" s="4">
         <f t="shared" si="2"/>
@@ -19515,7 +19515,7 @@
         <v>153</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151" s="4">
         <f t="shared" si="2"/>
@@ -19551,7 +19551,7 @@
         <v>154</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="4">
         <f t="shared" si="2"/>
@@ -19587,7 +19587,7 @@
         <v>155</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153" s="4">
         <f t="shared" si="2"/>
@@ -19623,7 +19623,7 @@
         <v>156</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" s="4">
         <f t="shared" si="2"/>
@@ -19659,7 +19659,7 @@
         <v>157</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" s="4">
         <f t="shared" si="2"/>
@@ -19695,7 +19695,7 @@
         <v>158</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C156" s="4">
         <f t="shared" si="2"/>
@@ -19731,7 +19731,7 @@
         <v>159</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C157" s="4">
         <f t="shared" si="2"/>
@@ -19767,7 +19767,7 @@
         <v>160</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158" s="4">
         <f t="shared" si="2"/>
@@ -19803,7 +19803,7 @@
         <v>161</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C159" s="4">
         <f t="shared" si="2"/>
@@ -19839,7 +19839,7 @@
         <v>162</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160" s="4">
         <f t="shared" si="2"/>
@@ -19875,7 +19875,7 @@
         <v>163</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" s="4">
         <f t="shared" si="2"/>
@@ -19911,7 +19911,7 @@
         <v>164</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" s="4">
         <f t="shared" si="2"/>
@@ -19947,7 +19947,7 @@
         <v>165</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="4">
         <f t="shared" si="2"/>
@@ -19983,7 +19983,7 @@
         <v>166</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="4">
         <f t="shared" si="2"/>
@@ -20019,7 +20019,7 @@
         <v>167</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="4">
         <f t="shared" si="2"/>
@@ -20055,7 +20055,7 @@
         <v>168</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="4">
         <f t="shared" si="2"/>
@@ -20091,7 +20091,7 @@
         <v>169</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="4">
         <f t="shared" si="2"/>
@@ -20127,7 +20127,7 @@
         <v>170</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" s="4">
         <f t="shared" si="2"/>
@@ -20163,7 +20163,7 @@
         <v>171</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="4">
         <f t="shared" si="2"/>
@@ -20199,7 +20199,7 @@
         <v>172</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="4">
         <f t="shared" si="2"/>
@@ -20235,7 +20235,7 @@
         <v>173</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="4">
         <f t="shared" si="2"/>
@@ -20271,7 +20271,7 @@
         <v>174</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="4">
         <f t="shared" si="2"/>
@@ -20307,7 +20307,7 @@
         <v>175</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="4">
         <f t="shared" si="2"/>
@@ -20343,7 +20343,7 @@
         <v>176</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" s="4">
         <f t="shared" si="2"/>
@@ -20379,7 +20379,7 @@
         <v>177</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" s="4">
         <f t="shared" si="2"/>
@@ -20415,7 +20415,7 @@
         <v>178</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="4">
         <f t="shared" si="2"/>
@@ -20451,7 +20451,7 @@
         <v>179</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" s="4">
         <f t="shared" si="2"/>
@@ -20487,7 +20487,7 @@
         <v>180</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="4">
         <f t="shared" si="2"/>
@@ -20523,7 +20523,7 @@
         <v>181</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="4">
         <f t="shared" si="2"/>
@@ -20559,7 +20559,7 @@
         <v>182</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="4">
         <f t="shared" si="2"/>
@@ -20595,7 +20595,7 @@
         <v>183</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="4">
         <f t="shared" si="2"/>
@@ -20631,7 +20631,7 @@
         <v>184</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="4">
         <f t="shared" si="2"/>
@@ -20667,7 +20667,7 @@
         <v>185</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="4">
         <f t="shared" si="2"/>
@@ -20703,7 +20703,7 @@
         <v>186</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" s="4">
         <f t="shared" si="2"/>
@@ -20739,7 +20739,7 @@
         <v>187</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" s="4">
         <f t="shared" si="2"/>
@@ -20775,7 +20775,7 @@
         <v>188</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="4">
         <f t="shared" si="2"/>
@@ -20811,7 +20811,7 @@
         <v>189</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="4">
         <f t="shared" si="2"/>
@@ -20847,7 +20847,7 @@
         <v>190</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="4">
         <f t="shared" si="2"/>
@@ -20883,7 +20883,7 @@
         <v>191</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="4">
         <f t="shared" si="2"/>
@@ -20919,7 +20919,7 @@
         <v>192</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="4">
         <f t="shared" si="2"/>
@@ -20955,7 +20955,7 @@
         <v>193</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="4">
         <f t="shared" si="2"/>
@@ -20991,7 +20991,7 @@
         <v>194</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="4">
         <f t="shared" si="2"/>
@@ -21027,7 +21027,7 @@
         <v>195</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="4">
         <f t="shared" si="2"/>
@@ -21063,7 +21063,7 @@
         <v>196</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" s="4">
         <f t="shared" si="2"/>
@@ -21099,7 +21099,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="4">
         <f t="shared" si="2"/>
@@ -21135,7 +21135,7 @@
         <v>198</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="4">
         <f t="shared" ref="C196:C259" si="3">C195+1</f>
@@ -21171,7 +21171,7 @@
         <v>199</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197" s="4">
         <f t="shared" si="3"/>
@@ -21207,7 +21207,7 @@
         <v>200</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198" s="4">
         <f t="shared" si="3"/>
@@ -21243,7 +21243,7 @@
         <v>201</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C199" s="4">
         <f t="shared" si="3"/>
@@ -21279,7 +21279,7 @@
         <v>202</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C200" s="4">
         <f t="shared" si="3"/>
@@ -21315,7 +21315,7 @@
         <v>203</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" s="4">
         <f t="shared" si="3"/>
@@ -21351,7 +21351,7 @@
         <v>204</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="4">
         <f t="shared" si="3"/>
@@ -21387,7 +21387,7 @@
         <v>205</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" s="4">
         <f t="shared" si="3"/>
@@ -21423,7 +21423,7 @@
         <v>206</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204" s="4">
         <f t="shared" si="3"/>
@@ -21459,7 +21459,7 @@
         <v>207</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" s="4">
         <f t="shared" si="3"/>
@@ -21495,7 +21495,7 @@
         <v>208</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206" s="4">
         <f t="shared" si="3"/>
@@ -21531,7 +21531,7 @@
         <v>209</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C207" s="4">
         <f t="shared" si="3"/>
@@ -21567,7 +21567,7 @@
         <v>210</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208" s="4">
         <f t="shared" si="3"/>
@@ -21603,7 +21603,7 @@
         <v>211</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" s="4">
         <f t="shared" si="3"/>
@@ -21639,7 +21639,7 @@
         <v>212</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="4">
         <f t="shared" si="3"/>
@@ -21675,7 +21675,7 @@
         <v>213</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" s="4">
         <f t="shared" si="3"/>
@@ -21711,7 +21711,7 @@
         <v>214</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C212" s="4">
         <f t="shared" si="3"/>
@@ -21747,7 +21747,7 @@
         <v>215</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" s="4">
         <f t="shared" si="3"/>
@@ -21783,7 +21783,7 @@
         <v>216</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" s="4">
         <f t="shared" si="3"/>
@@ -21819,7 +21819,7 @@
         <v>217</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" s="4">
         <f t="shared" si="3"/>
@@ -21855,7 +21855,7 @@
         <v>218</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" s="4">
         <f t="shared" si="3"/>
@@ -21891,7 +21891,7 @@
         <v>219</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" s="4">
         <f t="shared" si="3"/>
@@ -21927,7 +21927,7 @@
         <v>220</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" s="4">
         <f t="shared" si="3"/>
@@ -21963,7 +21963,7 @@
         <v>221</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219" s="4">
         <f t="shared" si="3"/>
@@ -21999,7 +21999,7 @@
         <v>222</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" s="4">
         <f t="shared" si="3"/>
@@ -22035,7 +22035,7 @@
         <v>223</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" s="4">
         <f t="shared" si="3"/>
@@ -22071,7 +22071,7 @@
         <v>224</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" s="4">
         <f t="shared" si="3"/>
@@ -22107,7 +22107,7 @@
         <v>225</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C223" s="4">
         <f t="shared" si="3"/>
@@ -22143,7 +22143,7 @@
         <v>226</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C224" s="4">
         <f t="shared" si="3"/>
@@ -22179,7 +22179,7 @@
         <v>227</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225" s="4">
         <f t="shared" si="3"/>
@@ -22215,7 +22215,7 @@
         <v>228</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="4">
         <f t="shared" si="3"/>
@@ -22251,7 +22251,7 @@
         <v>229</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="4">
         <f t="shared" si="3"/>
@@ -22287,7 +22287,7 @@
         <v>230</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="4">
         <f t="shared" si="3"/>
@@ -22323,7 +22323,7 @@
         <v>231</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="4">
         <f t="shared" si="3"/>
@@ -22359,7 +22359,7 @@
         <v>232</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="4">
         <f t="shared" si="3"/>
@@ -22395,7 +22395,7 @@
         <v>233</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="4">
         <f t="shared" si="3"/>
@@ -22431,7 +22431,7 @@
         <v>234</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" s="4">
         <f t="shared" si="3"/>
@@ -22467,7 +22467,7 @@
         <v>235</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" s="4">
         <f t="shared" si="3"/>
@@ -22503,7 +22503,7 @@
         <v>236</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="4">
         <f t="shared" si="3"/>
@@ -22539,7 +22539,7 @@
         <v>237</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235" s="4">
         <f t="shared" si="3"/>
@@ -22575,7 +22575,7 @@
         <v>238</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="4">
         <f t="shared" si="3"/>
@@ -22611,7 +22611,7 @@
         <v>239</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237" s="4">
         <f t="shared" si="3"/>
@@ -22647,7 +22647,7 @@
         <v>240</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238" s="4">
         <f t="shared" si="3"/>
@@ -22683,7 +22683,7 @@
         <v>241</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="4">
         <f t="shared" si="3"/>
@@ -22719,7 +22719,7 @@
         <v>242</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="4">
         <f t="shared" si="3"/>
@@ -22755,7 +22755,7 @@
         <v>243</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="4">
         <f t="shared" si="3"/>
@@ -22791,7 +22791,7 @@
         <v>244</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="4">
         <f t="shared" si="3"/>
@@ -22827,7 +22827,7 @@
         <v>245</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="4">
         <f t="shared" si="3"/>
@@ -22863,7 +22863,7 @@
         <v>246</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="4">
         <f t="shared" si="3"/>
@@ -22899,7 +22899,7 @@
         <v>247</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" s="4">
         <f t="shared" si="3"/>
@@ -22935,7 +22935,7 @@
         <v>248</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246" s="4">
         <f t="shared" si="3"/>
@@ -22971,7 +22971,7 @@
         <v>249</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" s="4">
         <f t="shared" si="3"/>
@@ -23007,7 +23007,7 @@
         <v>250</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="4">
         <f t="shared" si="3"/>
@@ -23043,7 +23043,7 @@
         <v>251</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" s="4">
         <f t="shared" si="3"/>
@@ -23079,7 +23079,7 @@
         <v>252</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="4">
         <f t="shared" si="3"/>
@@ -23115,7 +23115,7 @@
         <v>253</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" s="4">
         <f t="shared" si="3"/>
@@ -23151,7 +23151,7 @@
         <v>254</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="4">
         <f t="shared" si="3"/>
@@ -23187,7 +23187,7 @@
         <v>255</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="4">
         <f t="shared" si="3"/>
@@ -23223,7 +23223,7 @@
         <v>256</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="4">
         <f t="shared" si="3"/>
@@ -23259,7 +23259,7 @@
         <v>257</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="4">
         <f t="shared" si="3"/>
@@ -23295,7 +23295,7 @@
         <v>258</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="4">
         <f t="shared" si="3"/>
@@ -23331,7 +23331,7 @@
         <v>259</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="4">
         <f t="shared" si="3"/>
@@ -23367,7 +23367,7 @@
         <v>260</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258" s="4">
         <f t="shared" si="3"/>
@@ -23403,7 +23403,7 @@
         <v>261</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" s="4">
         <f t="shared" si="3"/>
@@ -23439,7 +23439,7 @@
         <v>262</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="4">
         <f t="shared" ref="C260:C323" si="4">C259+1</f>
@@ -23475,7 +23475,7 @@
         <v>263</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="4">
         <f t="shared" si="4"/>
@@ -23511,7 +23511,7 @@
         <v>264</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C262" s="4">
         <f t="shared" si="4"/>
@@ -23547,7 +23547,7 @@
         <v>265</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C263" s="4">
         <f t="shared" si="4"/>
@@ -23583,7 +23583,7 @@
         <v>266</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C264" s="4">
         <f t="shared" si="4"/>
@@ -23619,7 +23619,7 @@
         <v>267</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" s="4">
         <f t="shared" si="4"/>
@@ -23655,7 +23655,7 @@
         <v>268</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C266" s="4">
         <f t="shared" si="4"/>
@@ -23691,7 +23691,7 @@
         <v>269</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267" s="4">
         <f t="shared" si="4"/>
@@ -23727,7 +23727,7 @@
         <v>270</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C268" s="4">
         <f t="shared" si="4"/>
@@ -23763,7 +23763,7 @@
         <v>271</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C269" s="4">
         <f t="shared" si="4"/>
@@ -23799,7 +23799,7 @@
         <v>272</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C270" s="4">
         <f t="shared" si="4"/>
@@ -23835,7 +23835,7 @@
         <v>273</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C271" s="4">
         <f t="shared" si="4"/>
@@ -23871,7 +23871,7 @@
         <v>274</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C272" s="4">
         <f t="shared" si="4"/>
@@ -23907,7 +23907,7 @@
         <v>275</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C273" s="4">
         <f t="shared" si="4"/>
@@ -23943,7 +23943,7 @@
         <v>276</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C274" s="4">
         <f t="shared" si="4"/>
@@ -23979,7 +23979,7 @@
         <v>277</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C275" s="4">
         <f t="shared" si="4"/>
@@ -24015,7 +24015,7 @@
         <v>278</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C276" s="4">
         <f t="shared" si="4"/>
@@ -24051,7 +24051,7 @@
         <v>279</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277" s="4">
         <f t="shared" si="4"/>
@@ -24087,7 +24087,7 @@
         <v>280</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C278" s="4">
         <f t="shared" si="4"/>
@@ -24123,7 +24123,7 @@
         <v>281</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279" s="4">
         <f t="shared" si="4"/>
@@ -24159,7 +24159,7 @@
         <v>282</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280" s="4">
         <f t="shared" si="4"/>
@@ -24195,7 +24195,7 @@
         <v>283</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281" s="4">
         <f t="shared" si="4"/>
@@ -24231,7 +24231,7 @@
         <v>284</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C282" s="4">
         <f t="shared" si="4"/>
@@ -24267,7 +24267,7 @@
         <v>285</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C283" s="4">
         <f t="shared" si="4"/>
@@ -24303,7 +24303,7 @@
         <v>286</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C284" s="4">
         <f t="shared" si="4"/>
@@ -24339,7 +24339,7 @@
         <v>287</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285" s="4">
         <f t="shared" si="4"/>
@@ -24375,7 +24375,7 @@
         <v>288</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C286" s="4">
         <f t="shared" si="4"/>
@@ -24411,7 +24411,7 @@
         <v>289</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C287" s="4">
         <f t="shared" si="4"/>
@@ -24447,7 +24447,7 @@
         <v>290</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C288" s="4">
         <f t="shared" si="4"/>
@@ -24483,7 +24483,7 @@
         <v>291</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C289" s="4">
         <f t="shared" si="4"/>
@@ -24519,7 +24519,7 @@
         <v>292</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C290" s="4">
         <f t="shared" si="4"/>
@@ -24555,7 +24555,7 @@
         <v>293</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291" s="4">
         <f t="shared" si="4"/>
@@ -24591,7 +24591,7 @@
         <v>294</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C292" s="4">
         <f t="shared" si="4"/>
@@ -24627,7 +24627,7 @@
         <v>295</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" s="4">
         <f t="shared" si="4"/>
@@ -24663,7 +24663,7 @@
         <v>296</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C294" s="4">
         <f t="shared" si="4"/>
@@ -24699,7 +24699,7 @@
         <v>297</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C295" s="4">
         <f t="shared" si="4"/>
@@ -24735,7 +24735,7 @@
         <v>298</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296" s="4">
         <f t="shared" si="4"/>
@@ -24771,7 +24771,7 @@
         <v>299</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C297" s="4">
         <f t="shared" si="4"/>
@@ -24807,7 +24807,7 @@
         <v>300</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C298" s="4">
         <f t="shared" si="4"/>
@@ -24843,7 +24843,7 @@
         <v>301</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C299" s="4">
         <f t="shared" si="4"/>
@@ -24879,7 +24879,7 @@
         <v>302</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300" s="4">
         <f t="shared" si="4"/>
@@ -24915,7 +24915,7 @@
         <v>303</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C301" s="4">
         <f t="shared" si="4"/>
@@ -24951,7 +24951,7 @@
         <v>304</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302" s="4">
         <f t="shared" si="4"/>
@@ -24987,7 +24987,7 @@
         <v>305</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C303" s="4">
         <f t="shared" si="4"/>
@@ -25023,7 +25023,7 @@
         <v>306</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C304" s="4">
         <f t="shared" si="4"/>
@@ -25059,7 +25059,7 @@
         <v>307</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C305" s="4">
         <f t="shared" si="4"/>
@@ -25095,7 +25095,7 @@
         <v>308</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C306" s="4">
         <f t="shared" si="4"/>
@@ -25131,7 +25131,7 @@
         <v>309</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C307" s="4">
         <f t="shared" si="4"/>
@@ -25167,7 +25167,7 @@
         <v>310</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C308" s="4">
         <f t="shared" si="4"/>
@@ -25203,7 +25203,7 @@
         <v>311</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C309" s="4">
         <f t="shared" si="4"/>
@@ -25239,7 +25239,7 @@
         <v>312</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C310" s="4">
         <f t="shared" si="4"/>
@@ -25275,7 +25275,7 @@
         <v>313</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C311" s="4">
         <f t="shared" si="4"/>
@@ -25311,7 +25311,7 @@
         <v>314</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C312" s="4">
         <f t="shared" si="4"/>
@@ -25347,7 +25347,7 @@
         <v>315</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C313" s="4">
         <f t="shared" si="4"/>
@@ -25383,7 +25383,7 @@
         <v>316</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C314" s="4">
         <f t="shared" si="4"/>
@@ -25419,7 +25419,7 @@
         <v>317</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315" s="4">
         <f t="shared" si="4"/>
@@ -25455,7 +25455,7 @@
         <v>318</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C316" s="4">
         <f t="shared" si="4"/>
@@ -25491,7 +25491,7 @@
         <v>319</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C317" s="4">
         <f t="shared" si="4"/>
@@ -25527,7 +25527,7 @@
         <v>320</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C318" s="4">
         <f t="shared" si="4"/>
@@ -25563,7 +25563,7 @@
         <v>321</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C319" s="4">
         <f t="shared" si="4"/>
@@ -25599,7 +25599,7 @@
         <v>322</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C320" s="4">
         <f t="shared" si="4"/>
@@ -25635,7 +25635,7 @@
         <v>323</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C321" s="4">
         <f t="shared" si="4"/>
@@ -25671,7 +25671,7 @@
         <v>324</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C322" s="4">
         <f t="shared" si="4"/>
@@ -25707,7 +25707,7 @@
         <v>325</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C323" s="4">
         <f t="shared" si="4"/>
@@ -25743,7 +25743,7 @@
         <v>326</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C324" s="4">
         <f t="shared" ref="C324:C378" si="5">C323+1</f>
@@ -25779,7 +25779,7 @@
         <v>327</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C325" s="4">
         <f t="shared" si="5"/>
@@ -25815,7 +25815,7 @@
         <v>328</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C326" s="4">
         <f t="shared" si="5"/>
@@ -25851,7 +25851,7 @@
         <v>329</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327" s="4">
         <f t="shared" si="5"/>
@@ -25887,7 +25887,7 @@
         <v>330</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C328" s="4">
         <f t="shared" si="5"/>
@@ -25923,7 +25923,7 @@
         <v>331</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C329" s="4">
         <f t="shared" si="5"/>
@@ -25959,7 +25959,7 @@
         <v>332</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C330" s="4">
         <f t="shared" si="5"/>
@@ -25995,7 +25995,7 @@
         <v>333</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C331" s="4">
         <f t="shared" si="5"/>
@@ -26031,7 +26031,7 @@
         <v>334</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C332" s="4">
         <f t="shared" si="5"/>
@@ -26067,7 +26067,7 @@
         <v>335</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C333" s="4">
         <f t="shared" si="5"/>
@@ -26103,7 +26103,7 @@
         <v>336</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C334" s="4">
         <f t="shared" si="5"/>
@@ -26139,7 +26139,7 @@
         <v>337</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C335" s="4">
         <f t="shared" si="5"/>
@@ -26175,7 +26175,7 @@
         <v>338</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C336" s="4">
         <f t="shared" si="5"/>
@@ -26211,7 +26211,7 @@
         <v>339</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C337" s="4">
         <f t="shared" si="5"/>
@@ -26247,7 +26247,7 @@
         <v>340</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C338" s="4">
         <f t="shared" si="5"/>
@@ -26283,7 +26283,7 @@
         <v>341</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C339" s="4">
         <f t="shared" si="5"/>
@@ -26319,7 +26319,7 @@
         <v>342</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C340" s="4">
         <f t="shared" si="5"/>
@@ -26355,7 +26355,7 @@
         <v>343</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C341" s="4">
         <f t="shared" si="5"/>
@@ -26391,7 +26391,7 @@
         <v>344</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C342" s="4">
         <f t="shared" si="5"/>
@@ -26427,7 +26427,7 @@
         <v>345</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C343" s="4">
         <f t="shared" si="5"/>
@@ -26463,7 +26463,7 @@
         <v>346</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C344" s="4">
         <f t="shared" si="5"/>
@@ -26499,7 +26499,7 @@
         <v>347</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C345" s="4">
         <f t="shared" si="5"/>
@@ -26535,7 +26535,7 @@
         <v>348</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C346" s="4">
         <f t="shared" si="5"/>
@@ -26571,7 +26571,7 @@
         <v>349</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C347" s="4">
         <f t="shared" si="5"/>
@@ -26607,7 +26607,7 @@
         <v>350</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C348" s="4">
         <f t="shared" si="5"/>
@@ -26643,7 +26643,7 @@
         <v>351</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C349" s="4">
         <f t="shared" si="5"/>
@@ -26679,7 +26679,7 @@
         <v>352</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C350" s="4">
         <f t="shared" si="5"/>
@@ -26715,7 +26715,7 @@
         <v>353</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C351" s="4">
         <f t="shared" si="5"/>
@@ -26751,7 +26751,7 @@
         <v>354</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C352" s="4">
         <f t="shared" si="5"/>
@@ -26787,7 +26787,7 @@
         <v>355</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C353" s="4">
         <f t="shared" si="5"/>
@@ -26823,7 +26823,7 @@
         <v>356</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C354" s="4">
         <f t="shared" si="5"/>
@@ -26859,7 +26859,7 @@
         <v>357</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C355" s="4">
         <f t="shared" si="5"/>
@@ -26895,7 +26895,7 @@
         <v>358</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C356" s="4">
         <f t="shared" si="5"/>
@@ -26931,7 +26931,7 @@
         <v>359</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C357" s="4">
         <f t="shared" si="5"/>
@@ -26967,7 +26967,7 @@
         <v>360</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C358" s="4">
         <f t="shared" si="5"/>
@@ -27003,7 +27003,7 @@
         <v>361</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C359" s="4">
         <f t="shared" si="5"/>
@@ -27039,7 +27039,7 @@
         <v>362</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C360" s="4">
         <f t="shared" si="5"/>
@@ -27075,7 +27075,7 @@
         <v>363</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C361" s="4">
         <f t="shared" si="5"/>
@@ -27111,7 +27111,7 @@
         <v>364</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C362" s="4">
         <f t="shared" si="5"/>
@@ -27147,7 +27147,7 @@
         <v>365</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C363" s="4">
         <f t="shared" si="5"/>
@@ -27183,7 +27183,7 @@
         <v>366</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C364" s="4">
         <f t="shared" si="5"/>
@@ -27219,7 +27219,7 @@
         <v>367</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C365" s="4">
         <f t="shared" si="5"/>
@@ -27255,7 +27255,7 @@
         <v>368</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C366" s="4">
         <f t="shared" si="5"/>
@@ -27291,7 +27291,7 @@
         <v>369</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C367" s="4">
         <f t="shared" si="5"/>
@@ -27327,7 +27327,7 @@
         <v>370</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C368" s="4">
         <f t="shared" si="5"/>
@@ -27363,7 +27363,7 @@
         <v>371</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C369" s="4">
         <f t="shared" si="5"/>
@@ -27399,7 +27399,7 @@
         <v>372</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C370" s="4">
         <f t="shared" si="5"/>
@@ -27435,7 +27435,7 @@
         <v>373</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C371" s="4">
         <f t="shared" si="5"/>
@@ -27471,7 +27471,7 @@
         <v>374</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C372" s="4">
         <f t="shared" si="5"/>
@@ -27507,7 +27507,7 @@
         <v>375</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C373" s="4">
         <f t="shared" si="5"/>
@@ -27543,7 +27543,7 @@
         <v>376</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C374" s="4">
         <f t="shared" si="5"/>
@@ -27579,7 +27579,7 @@
         <v>377</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C375" s="4">
         <f t="shared" si="5"/>
@@ -27615,7 +27615,7 @@
         <v>378</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C376" s="4">
         <f t="shared" si="5"/>
@@ -27651,7 +27651,7 @@
         <v>379</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C377" s="4">
         <f t="shared" si="5"/>
@@ -27687,7 +27687,7 @@
         <v>380</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C378" s="4">
         <f t="shared" si="5"/>
@@ -27723,7 +27723,7 @@
         <v>381</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="5"/>
